--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AIjudege\Val\VCTS4\数据统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712BB881-0B10-4F01-AC7E-E2524ED936C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08ECBEE2-BEA2-44F0-9457-A21714B0BB06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="46800" windowHeight="23325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="91">
   <si>
     <t>比赛日期</t>
   </si>
@@ -315,6 +315,22 @@
   </si>
   <si>
     <t>DUST2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙磊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡鹏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chopper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>device</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -658,8 +674,8 @@
   </sheetPr>
   <dimension ref="A1:Z7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -962,26 +978,26 @@
       <c r="R4" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="S4" s="1" t="s">
-        <v>36</v>
+      <c r="S4" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="U4" s="1" t="s">
-        <v>38</v>
+      <c r="U4" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="V4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="1" t="s">
-        <v>40</v>
+      <c r="W4" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="X4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Y4" s="1" t="s">
-        <v>42</v>
+      <c r="Y4" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="Z4" s="1" t="s">
         <v>43</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AIjudege\Val\VCTS4\数据统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08ECBEE2-BEA2-44F0-9457-A21714B0BB06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B176ED6D-FA47-494E-A66E-096DDC8142BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="46800" windowHeight="23325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="帮我生成一个模板表格" sheetId="1" r:id="rId1"/>
+    <sheet name="传奇组" sheetId="1" r:id="rId1"/>
+    <sheet name="中坚组" sheetId="2" r:id="rId2"/>
+    <sheet name="挑战组" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="91">
   <si>
     <t>比赛日期</t>
   </si>
@@ -674,8 +676,8 @@
   </sheetPr>
   <dimension ref="A1:Z7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1092,4 +1094,842 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE9459E6-C9D7-401E-B043-9BB24DEE5BEB}">
+  <dimension ref="A1:Z5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y5" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC758D63-605A-4899-AC4B-21714CC9B675}">
+  <dimension ref="A1:Z5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y5" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AIjudege\Val\VCTS4\数据统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B176ED6D-FA47-494E-A66E-096DDC8142BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0B82DF-2671-4747-BC44-2FE5AD4B52E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="46800" windowHeight="23325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="46800" windowHeight="23325" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="传奇组" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="91">
   <si>
     <t>比赛日期</t>
   </si>
@@ -676,7 +676,7 @@
   </sheetPr>
   <dimension ref="A1:Z7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1098,10 +1098,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE9459E6-C9D7-401E-B043-9BB24DEE5BEB}">
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1189,323 +1189,83 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>80</v>
+        <v>59</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>32</v>
+        <v>47</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>40</v>
+        <v>52</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="W3" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y3" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U4" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W4" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y4" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="S5" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="U5" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="W5" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y5" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z5" s="1" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1517,10 +1277,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC758D63-605A-4899-AC4B-21714CC9B675}">
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1688,246 +1448,6 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="W3" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y3" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U4" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W4" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y4" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="S5" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="U5" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="W5" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y5" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AIjudege\Val\VCTS4\数据统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0B82DF-2671-4747-BC44-2FE5AD4B52E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D0CB19-3BB1-4D3F-8351-80DE3054AE7A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="46800" windowHeight="23325" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="46800" windowHeight="23325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="传奇组" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="107">
   <si>
     <t>比赛日期</t>
   </si>
@@ -36,15 +36,6 @@
     <t>teamA</t>
   </si>
   <si>
-    <t>teamA_player1ID</t>
-  </si>
-  <si>
-    <t>teamA_player1数据</t>
-  </si>
-  <si>
-    <t>teamA_player2ID</t>
-  </si>
-  <si>
     <t>teamA_player2数据</t>
   </si>
   <si>
@@ -84,13 +75,7 @@
     <t>teamB_player3ID</t>
   </si>
   <si>
-    <t>teamB_player3数据</t>
-  </si>
-  <si>
     <t>teamB_player4ID</t>
-  </si>
-  <si>
-    <t>teamB_player4数据</t>
   </si>
   <si>
     <t>teamB_player5ID</t>
@@ -333,6 +318,126 @@
   </si>
   <si>
     <t>device</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>teamA_player1ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>teamA_player1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>teamA_player2ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>teamA_player1Ch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>捷风</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蕾娜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猎枭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇乐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>teamB_player3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>teamB_player1Ch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>teamB_player5Ch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>teamB_player4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>teamB_player4Ch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>teamB_player3Ch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>teamB_player2Ch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>teamA_player5Ch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>teamA_player4Ch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>teamA_player3Ch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>teamA_player2Ch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷兹</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -674,20 +779,26 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" customWidth="1"/>
+    <col min="32" max="32" width="33.28515625" customWidth="1"/>
+    <col min="33" max="33" width="24.85546875" customWidth="1"/>
+    <col min="34" max="34" width="23.5703125" customWidth="1"/>
+    <col min="35" max="35" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -701,392 +812,542 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="P1" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="S1" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="W1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Z1" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="AC1" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="AF1" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AI1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:36" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="D2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="J2" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="L2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="9" t="s">
+    <row r="3" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI3" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB4" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE4" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH4" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI4" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="E5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="J5" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y2" s="1" t="s">
+      <c r="L5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="O5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="R5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y5" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z5" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH5" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI5" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="3" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="W3" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y3" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U4" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W4" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y4" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="S5" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="U5" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="W5" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y5" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:36" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
     </row>
   </sheetData>
@@ -1098,10 +1359,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE9459E6-C9D7-401E-B043-9BB24DEE5BEB}">
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:AJ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1109,9 +1370,9 @@
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1125,148 +1386,538 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="P1" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="S1" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="W1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Z1" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="AC1" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="AF1" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AI1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="D2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="J2" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="L2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="9" t="s">
+    <row r="3" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI3" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="X4" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="Y4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB4" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE4" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH4" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI4" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="T5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="U5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="X5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="Y5" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="Z5" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J2" s="7" t="s">
+      <c r="AB5" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="AC5" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="AE5" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="AF5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="AH5" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="AI5" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1277,10 +1928,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC758D63-605A-4899-AC4B-21714CC9B675}">
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:AJ5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD4"/>
+      <selection sqref="A1:AJ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1288,9 +1939,9 @@
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1304,148 +1955,538 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="P1" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="S1" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="W1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Z1" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="AC1" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="AF1" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AI1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:36" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="D2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="J2" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="L2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="9" t="s">
+    <row r="3" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI3" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB4" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE4" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH4" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI4" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="E5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="J5" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y2" s="1" t="s">
+      <c r="L5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="O5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>43</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y5" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z5" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH5" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI5" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AIjudege\Val\VCTS4\数据统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D0CB19-3BB1-4D3F-8351-80DE3054AE7A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0413BF57-3919-465E-8BB4-A78C8D338D59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="46800" windowHeight="23325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="46800" windowHeight="23325" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="传奇组" sheetId="1" r:id="rId1"/>
     <sheet name="中坚组" sheetId="2" r:id="rId2"/>
     <sheet name="挑战组" sheetId="6" r:id="rId3"/>
+    <sheet name="id" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="113">
   <si>
     <t>比赛日期</t>
   </si>
@@ -231,10 +232,6 @@
     <t>张佳祺</t>
   </si>
   <si>
-    <t>游佳琳</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>康天宇</t>
   </si>
   <si>
@@ -440,12 +437,36 @@
     <t>雷兹</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李庚希加油</t>
+  </si>
+  <si>
+    <t>李庚希加油</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>傻逼二次元</t>
+  </si>
+  <si>
+    <t>U+0</t>
+  </si>
+  <si>
+    <t>游佳琳</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -506,6 +527,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -542,7 +571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -561,6 +590,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -781,8 +812,8 @@
   </sheetPr>
   <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -798,7 +829,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -813,19 +844,19 @@
         <v>3</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="J1" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>4</v>
@@ -834,7 +865,7 @@
         <v>5</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>6</v>
@@ -843,7 +874,7 @@
         <v>7</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>8</v>
@@ -852,7 +883,7 @@
         <v>9</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>10</v>
@@ -864,7 +895,7 @@
         <v>12</v>
       </c>
       <c r="W1" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>13</v>
@@ -873,7 +904,7 @@
         <v>14</v>
       </c>
       <c r="Z1" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>15</v>
@@ -882,25 +913,25 @@
         <v>16</v>
       </c>
       <c r="AC1" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AD1" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AF1" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AG1" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AI1" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>19</v>
@@ -908,7 +939,7 @@
     </row>
     <row r="2" spans="1:36" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>20</v>
@@ -923,10 +954,10 @@
         <v>52</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>22</v>
@@ -935,7 +966,7 @@
         <v>23</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>24</v>
@@ -944,7 +975,7 @@
         <v>25</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>26</v>
@@ -953,7 +984,7 @@
         <v>27</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>28</v>
@@ -962,7 +993,7 @@
         <v>29</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>30</v>
@@ -971,19 +1002,19 @@
         <v>53</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA2" s="1" t="s">
         <v>32</v>
@@ -992,7 +1023,7 @@
         <v>33</v>
       </c>
       <c r="AC2" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD2" s="1" t="s">
         <v>34</v>
@@ -1001,7 +1032,7 @@
         <v>35</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG2" s="1" t="s">
         <v>36</v>
@@ -1010,7 +1041,7 @@
         <v>37</v>
       </c>
       <c r="AI2" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ2" s="1" t="s">
         <v>38</v>
@@ -1018,7 +1049,7 @@
     </row>
     <row r="3" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>39</v>
@@ -1036,16 +1067,16 @@
         <v>58</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>41</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>57</v>
@@ -1054,7 +1085,7 @@
         <v>59</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>42</v>
@@ -1063,7 +1094,7 @@
         <v>60</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>43</v>
@@ -1072,7 +1103,7 @@
         <v>61</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>44</v>
@@ -1081,46 +1112,46 @@
         <v>55</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>45</v>
       </c>
       <c r="Y3" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA3" s="1" t="s">
         <v>46</v>
       </c>
       <c r="AB3" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD3" s="1" t="s">
         <v>47</v>
       </c>
       <c r="AE3" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF3" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG3" s="1" t="s">
         <v>48</v>
       </c>
       <c r="AH3" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AI3" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ3" s="1" t="s">
         <v>49</v>
@@ -1128,61 +1159,61 @@
     </row>
     <row r="4" spans="1:36" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>52</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>30</v>
@@ -1191,46 +1222,46 @@
         <v>53</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="W4" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z4" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="X4" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y4" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z4" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="AA4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="AB4" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AE4" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AF4" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG4" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AH4" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI4" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ4" s="1" t="s">
         <v>38</v>
@@ -1238,7 +1269,7 @@
     </row>
     <row r="5" spans="1:36" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>39</v>
@@ -1247,7 +1278,7 @@
         <v>40</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>54</v>
@@ -1256,16 +1287,16 @@
         <v>58</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>41</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>57</v>
@@ -1274,7 +1305,7 @@
         <v>59</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>42</v>
@@ -1283,7 +1314,7 @@
         <v>60</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>43</v>
@@ -1292,7 +1323,7 @@
         <v>61</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>44</v>
@@ -1301,46 +1332,46 @@
         <v>55</v>
       </c>
       <c r="V5" s="7" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="X5" s="1" t="s">
         <v>45</v>
       </c>
       <c r="Y5" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA5" s="1" t="s">
         <v>46</v>
       </c>
       <c r="AB5" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC5" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD5" s="1" t="s">
         <v>47</v>
       </c>
       <c r="AE5" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF5" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG5" s="1" t="s">
         <v>48</v>
       </c>
       <c r="AH5" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AI5" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ5" s="1" t="s">
         <v>49</v>
@@ -1372,7 +1403,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1387,19 +1418,19 @@
         <v>3</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="J1" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>4</v>
@@ -1408,7 +1439,7 @@
         <v>5</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>6</v>
@@ -1417,7 +1448,7 @@
         <v>7</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>8</v>
@@ -1426,7 +1457,7 @@
         <v>9</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>10</v>
@@ -1438,7 +1469,7 @@
         <v>12</v>
       </c>
       <c r="W1" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>13</v>
@@ -1447,7 +1478,7 @@
         <v>14</v>
       </c>
       <c r="Z1" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>15</v>
@@ -1456,25 +1487,25 @@
         <v>16</v>
       </c>
       <c r="AC1" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AD1" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AF1" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AG1" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AI1" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>19</v>
@@ -1482,7 +1513,7 @@
     </row>
     <row r="2" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>20</v>
@@ -1497,10 +1528,10 @@
         <v>52</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>22</v>
@@ -1509,7 +1540,7 @@
         <v>23</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>24</v>
@@ -1518,7 +1549,7 @@
         <v>25</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>26</v>
@@ -1527,7 +1558,7 @@
         <v>27</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>28</v>
@@ -1536,7 +1567,7 @@
         <v>29</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>30</v>
@@ -1545,19 +1576,19 @@
         <v>53</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA2" s="1" t="s">
         <v>32</v>
@@ -1566,7 +1597,7 @@
         <v>33</v>
       </c>
       <c r="AC2" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD2" s="1" t="s">
         <v>34</v>
@@ -1575,7 +1606,7 @@
         <v>35</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG2" s="1" t="s">
         <v>36</v>
@@ -1584,7 +1615,7 @@
         <v>37</v>
       </c>
       <c r="AI2" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ2" s="1" t="s">
         <v>38</v>
@@ -1592,7 +1623,7 @@
     </row>
     <row r="3" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>39</v>
@@ -1610,16 +1641,16 @@
         <v>58</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>41</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>57</v>
@@ -1628,7 +1659,7 @@
         <v>59</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>42</v>
@@ -1637,7 +1668,7 @@
         <v>60</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>43</v>
@@ -1646,7 +1677,7 @@
         <v>61</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>44</v>
@@ -1655,46 +1686,46 @@
         <v>55</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>45</v>
       </c>
       <c r="Y3" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA3" s="1" t="s">
         <v>46</v>
       </c>
       <c r="AB3" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD3" s="1" t="s">
         <v>47</v>
       </c>
       <c r="AE3" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF3" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG3" s="1" t="s">
         <v>48</v>
       </c>
       <c r="AH3" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AI3" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ3" s="1" t="s">
         <v>49</v>
@@ -1702,61 +1733,61 @@
     </row>
     <row r="4" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>52</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>30</v>
@@ -1765,46 +1796,46 @@
         <v>53</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="W4" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z4" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="X4" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y4" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z4" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="AA4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="AB4" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AE4" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AF4" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG4" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AH4" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI4" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ4" s="1" t="s">
         <v>38</v>
@@ -1812,7 +1843,7 @@
     </row>
     <row r="5" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>39</v>
@@ -1821,7 +1852,7 @@
         <v>40</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>54</v>
@@ -1830,16 +1861,16 @@
         <v>58</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>41</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>57</v>
@@ -1848,7 +1879,7 @@
         <v>59</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>42</v>
@@ -1857,7 +1888,7 @@
         <v>60</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>43</v>
@@ -1866,7 +1897,7 @@
         <v>61</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>44</v>
@@ -1875,46 +1906,46 @@
         <v>55</v>
       </c>
       <c r="V5" s="7" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="X5" s="1" t="s">
         <v>45</v>
       </c>
       <c r="Y5" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA5" s="1" t="s">
         <v>46</v>
       </c>
       <c r="AB5" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC5" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD5" s="1" t="s">
         <v>47</v>
       </c>
       <c r="AE5" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF5" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG5" s="1" t="s">
         <v>48</v>
       </c>
       <c r="AH5" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AI5" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ5" s="1" t="s">
         <v>49</v>
@@ -1941,7 +1972,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1956,19 +1987,19 @@
         <v>3</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="J1" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>4</v>
@@ -1977,7 +2008,7 @@
         <v>5</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>6</v>
@@ -1986,7 +2017,7 @@
         <v>7</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>8</v>
@@ -1995,7 +2026,7 @@
         <v>9</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>10</v>
@@ -2007,7 +2038,7 @@
         <v>12</v>
       </c>
       <c r="W1" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>13</v>
@@ -2016,7 +2047,7 @@
         <v>14</v>
       </c>
       <c r="Z1" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>15</v>
@@ -2025,25 +2056,25 @@
         <v>16</v>
       </c>
       <c r="AC1" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AD1" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AF1" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AG1" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AI1" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>19</v>
@@ -2051,7 +2082,7 @@
     </row>
     <row r="2" spans="1:36" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>20</v>
@@ -2066,10 +2097,10 @@
         <v>52</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>22</v>
@@ -2078,7 +2109,7 @@
         <v>23</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>24</v>
@@ -2087,7 +2118,7 @@
         <v>25</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>26</v>
@@ -2096,7 +2127,7 @@
         <v>27</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>28</v>
@@ -2105,7 +2136,7 @@
         <v>29</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>30</v>
@@ -2114,19 +2145,19 @@
         <v>53</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA2" s="1" t="s">
         <v>32</v>
@@ -2135,7 +2166,7 @@
         <v>33</v>
       </c>
       <c r="AC2" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD2" s="1" t="s">
         <v>34</v>
@@ -2144,7 +2175,7 @@
         <v>35</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG2" s="1" t="s">
         <v>36</v>
@@ -2153,7 +2184,7 @@
         <v>37</v>
       </c>
       <c r="AI2" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ2" s="1" t="s">
         <v>38</v>
@@ -2161,7 +2192,7 @@
     </row>
     <row r="3" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>39</v>
@@ -2179,16 +2210,16 @@
         <v>58</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>41</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>57</v>
@@ -2197,7 +2228,7 @@
         <v>59</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>42</v>
@@ -2206,7 +2237,7 @@
         <v>60</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>43</v>
@@ -2215,7 +2246,7 @@
         <v>61</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>44</v>
@@ -2224,46 +2255,46 @@
         <v>55</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>45</v>
       </c>
       <c r="Y3" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA3" s="1" t="s">
         <v>46</v>
       </c>
       <c r="AB3" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD3" s="1" t="s">
         <v>47</v>
       </c>
       <c r="AE3" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF3" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG3" s="1" t="s">
         <v>48</v>
       </c>
       <c r="AH3" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AI3" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ3" s="1" t="s">
         <v>49</v>
@@ -2271,61 +2302,61 @@
     </row>
     <row r="4" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>52</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>30</v>
@@ -2334,46 +2365,46 @@
         <v>53</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="W4" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z4" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="X4" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y4" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z4" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="AA4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="AB4" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AE4" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AF4" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG4" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AH4" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI4" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ4" s="1" t="s">
         <v>38</v>
@@ -2381,7 +2412,7 @@
     </row>
     <row r="5" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>39</v>
@@ -2390,7 +2421,7 @@
         <v>40</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>54</v>
@@ -2399,16 +2430,16 @@
         <v>58</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>41</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>57</v>
@@ -2417,7 +2448,7 @@
         <v>59</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>42</v>
@@ -2426,7 +2457,7 @@
         <v>60</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>43</v>
@@ -2435,7 +2466,7 @@
         <v>61</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>44</v>
@@ -2444,46 +2475,46 @@
         <v>55</v>
       </c>
       <c r="V5" s="7" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="X5" s="1" t="s">
         <v>45</v>
       </c>
       <c r="Y5" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA5" s="1" t="s">
         <v>46</v>
       </c>
       <c r="AB5" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC5" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD5" s="1" t="s">
         <v>47</v>
       </c>
       <c r="AE5" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF5" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG5" s="1" t="s">
         <v>48</v>
       </c>
       <c r="AH5" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AI5" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ5" s="1" t="s">
         <v>49</v>
@@ -2493,4 +2524,53 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E12EEEAD-04DA-4BB2-827B-0F007AA08447}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13380" activeTab="3"/>
+    <workbookView windowWidth="30720" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="传奇组" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="115">
   <si>
     <t>赛段</t>
   </si>
@@ -269,10 +269,10 @@
     <t>250/20/15/5</t>
   </si>
   <si>
-    <t>Zest</t>
-  </si>
-  <si>
-    <t>210/17/14/4</t>
+    <t>尾巴大爷</t>
+  </si>
+  <si>
+    <t>110/7/14/4</t>
   </si>
   <si>
     <t>BuZz</t>
@@ -410,6 +410,9 @@
     <t>chopper</t>
   </si>
   <si>
+    <t>210/17/14/4</t>
+  </si>
+  <si>
     <t>device</t>
   </si>
   <si>
@@ -422,6 +425,9 @@
     <t>13:0</t>
   </si>
   <si>
+    <t>Zest</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -438,6 +444,9 @@
   </si>
   <si>
     <t>龙子杰</t>
+  </si>
+  <si>
+    <t>马晨笑</t>
   </si>
 </sst>
 </file>
@@ -450,14 +459,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -476,20 +478,6 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -980,19 +968,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1001,148 +1001,132 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -1409,13 +1393,13 @@
   </sheetPr>
   <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y4"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5740740740741" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="6"/>
   <cols>
-    <col min="4" max="4" width="13" style="13" customWidth="1"/>
+    <col min="4" max="4" width="13" style="9" customWidth="1"/>
     <col min="7" max="7" width="19.5740740740741" customWidth="1"/>
     <col min="10" max="10" width="19.5740740740741" customWidth="1"/>
     <col min="32" max="32" width="33.287037037037" customWidth="1"/>
@@ -1425,557 +1409,557 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AC1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AD1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AE1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AF1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AG1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AH1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AI1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:36">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="V2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="W2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="X2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Y2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="Z2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AA2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AB2" s="5" t="s">
+      <c r="AB2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AC2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AD2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AE2" s="5" t="s">
+      <c r="AE2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AF2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AG2" s="5" t="s">
+      <c r="AG2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AH2" s="5" t="s">
+      <c r="AH2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AI2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AJ2" s="5" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:36">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="R3" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="T3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="U3" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="V3" s="12" t="s">
+      <c r="V3" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="W3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="X3" s="5" t="s">
+      <c r="X3" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Y3" s="12" t="s">
+      <c r="Y3" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="Z3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AA3" s="5" t="s">
+      <c r="AA3" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="AB3" s="12" t="s">
+      <c r="AB3" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AC3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AD3" s="5" t="s">
+      <c r="AD3" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="AE3" s="12" t="s">
+      <c r="AE3" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="AF3" s="3" t="s">
+      <c r="AF3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AG3" s="5" t="s">
+      <c r="AG3" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AH3" s="12" t="s">
+      <c r="AH3" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="AI3" s="3" t="s">
+      <c r="AI3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AJ3" s="5" t="s">
+      <c r="AJ3" s="3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:36">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="R4" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="T4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="U4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="V4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="W4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="X4" s="7" t="s">
+      <c r="X4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="Y4" s="5" t="s">
+      <c r="Y4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="Z4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AA4" s="5" t="s">
+      <c r="AA4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AB4" s="7" t="s">
+      <c r="AB4" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AC4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AD4" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE4" s="7" t="s">
+      <c r="AD4" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AE4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AG4" s="5" t="s">
+      <c r="AG4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AH4" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AI4" s="3" t="s">
+      <c r="AH4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AI4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AJ4" s="5" t="s">
+      <c r="AJ4" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:36">
-      <c r="A5" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="O5" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="R5" s="12" t="s">
+      <c r="R5" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="S5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="T5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="U5" s="7" t="s">
+      <c r="U5" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="V5" s="12" t="s">
+      <c r="V5" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="W5" s="3" t="s">
+      <c r="W5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="X5" s="5" t="s">
+      <c r="X5" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Y5" s="12" t="s">
+      <c r="Y5" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="Z5" s="3" t="s">
+      <c r="Z5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AA5" s="5" t="s">
+      <c r="AA5" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="AB5" s="12" t="s">
+      <c r="AB5" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="AC5" s="3" t="s">
+      <c r="AC5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AD5" s="5" t="s">
+      <c r="AD5" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="AE5" s="12" t="s">
+      <c r="AE5" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="AF5" s="3" t="s">
+      <c r="AF5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AG5" s="5" t="s">
+      <c r="AG5" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AH5" s="12" t="s">
+      <c r="AH5" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="AI5" s="3" t="s">
+      <c r="AI5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AJ5" s="5" t="s">
+      <c r="AJ5" s="3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:1">
-      <c r="A7" s="8"/>
+      <c r="A7" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1999,552 +1983,552 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:36">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AC1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AD1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AE1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AF1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AG1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AH1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AI1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:36">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="V2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="W2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="X2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Y2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="Z2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AA2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AB2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AD2" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE2" s="5" t="s">
+      <c r="AD2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AF2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AG2" s="5" t="s">
+      <c r="AG2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AH2" s="5" t="s">
+      <c r="AH2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AI2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AJ2" s="5" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3" ht="15.75" spans="1:36">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="R3" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="T3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="U3" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="V3" s="12" t="s">
+      <c r="V3" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="W3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="X3" s="5" t="s">
+      <c r="X3" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Y3" s="12" t="s">
+      <c r="Y3" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="Z3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AA3" s="5" t="s">
+      <c r="AA3" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="AB3" s="12" t="s">
+      <c r="AB3" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AC3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AD3" s="5" t="s">
+      <c r="AD3" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="AE3" s="12" t="s">
+      <c r="AE3" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="AF3" s="3" t="s">
+      <c r="AF3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AG3" s="5" t="s">
+      <c r="AG3" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AH3" s="12" t="s">
+      <c r="AH3" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="AI3" s="3" t="s">
+      <c r="AI3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AJ3" s="5" t="s">
+      <c r="AJ3" s="3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:36">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="R4" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="T4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="U4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="V4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="W4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="X4" s="7" t="s">
+      <c r="X4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="Y4" s="5" t="s">
+      <c r="Y4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="Z4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AA4" s="5" t="s">
+      <c r="AA4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AB4" s="7" t="s">
+      <c r="AB4" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AC4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AD4" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE4" s="7" t="s">
+      <c r="AD4" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AE4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AG4" s="5" t="s">
+      <c r="AG4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AH4" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AI4" s="3" t="s">
+      <c r="AH4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AI4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AJ4" s="5" t="s">
+      <c r="AJ4" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:36">
-      <c r="A5" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="O5" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="R5" s="12" t="s">
+      <c r="R5" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="S5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="T5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="U5" s="7" t="s">
+      <c r="U5" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="V5" s="12" t="s">
+      <c r="V5" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="W5" s="3" t="s">
+      <c r="W5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="X5" s="5" t="s">
+      <c r="X5" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Y5" s="12" t="s">
+      <c r="Y5" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="Z5" s="3" t="s">
+      <c r="Z5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AA5" s="5" t="s">
+      <c r="AA5" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="AB5" s="12" t="s">
+      <c r="AB5" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="AC5" s="3" t="s">
+      <c r="AC5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AD5" s="5" t="s">
+      <c r="AD5" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="AE5" s="12" t="s">
+      <c r="AE5" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="AF5" s="3" t="s">
+      <c r="AF5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AG5" s="5" t="s">
+      <c r="AG5" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AH5" s="12" t="s">
+      <c r="AH5" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="AI5" s="3" t="s">
+      <c r="AI5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AJ5" s="5" t="s">
+      <c r="AJ5" s="3" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2569,552 +2553,552 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:36">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AC1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AD1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AE1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AF1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AG1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AH1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AI1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:36">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="V2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="W2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="X2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Y2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="Z2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AA2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AB2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AD2" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE2" s="5" t="s">
+      <c r="AD2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AF2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AG2" s="5" t="s">
+      <c r="AG2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AH2" s="5" t="s">
+      <c r="AH2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AI2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AJ2" s="5" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3" ht="15.75" spans="1:36">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="R3" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="T3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="U3" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="V3" s="12" t="s">
+      <c r="V3" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="W3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="X3" s="5" t="s">
+      <c r="X3" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Y3" s="12" t="s">
+      <c r="Y3" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="Z3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AA3" s="5" t="s">
+      <c r="AA3" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="AB3" s="12" t="s">
+      <c r="AB3" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AC3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AD3" s="5" t="s">
+      <c r="AD3" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="AE3" s="12" t="s">
+      <c r="AE3" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="AF3" s="3" t="s">
+      <c r="AF3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AG3" s="5" t="s">
+      <c r="AG3" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AH3" s="12" t="s">
+      <c r="AH3" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="AI3" s="3" t="s">
+      <c r="AI3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AJ3" s="5" t="s">
+      <c r="AJ3" s="3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:36">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="R4" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="T4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="U4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="V4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="W4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="X4" s="7" t="s">
+      <c r="X4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="Y4" s="5" t="s">
+      <c r="Y4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="Z4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AA4" s="5" t="s">
+      <c r="AA4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AB4" s="7" t="s">
+      <c r="AB4" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AC4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AD4" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE4" s="7" t="s">
+      <c r="AD4" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AE4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AG4" s="5" t="s">
+      <c r="AG4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AH4" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AI4" s="3" t="s">
+      <c r="AH4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AI4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AJ4" s="5" t="s">
+      <c r="AJ4" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:36">
-      <c r="A5" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="O5" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="R5" s="12" t="s">
+      <c r="R5" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="S5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="T5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="U5" s="7" t="s">
+      <c r="U5" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="V5" s="12" t="s">
+      <c r="V5" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="W5" s="3" t="s">
+      <c r="W5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="X5" s="5" t="s">
+      <c r="X5" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Y5" s="12" t="s">
+      <c r="Y5" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="Z5" s="3" t="s">
+      <c r="Z5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AA5" s="5" t="s">
+      <c r="AA5" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="AB5" s="12" t="s">
+      <c r="AB5" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="AC5" s="3" t="s">
+      <c r="AC5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AD5" s="5" t="s">
+      <c r="AD5" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="AE5" s="12" t="s">
+      <c r="AE5" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="AF5" s="3" t="s">
+      <c r="AF5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AG5" s="5" t="s">
+      <c r="AG5" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AH5" s="12" t="s">
+      <c r="AH5" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="AI5" s="3" t="s">
+      <c r="AI5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AJ5" s="5" t="s">
+      <c r="AJ5" s="3" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3127,52 +3111,60 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="5" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>107</v>
+      <c r="A1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="2" ht="15" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>108</v>
+      <c r="B2" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>109</v>
+      <c r="B3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="4" ht="15" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>110</v>
+      <c r="B4" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
